--- a/data/model_target_fraud.xlsx
+++ b/data/model_target_fraud.xlsx
@@ -380,7 +380,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -450,7 +450,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -480,12 +480,12 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -495,7 +495,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -510,7 +510,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -520,7 +520,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -550,7 +550,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -580,7 +580,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -655,7 +655,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -690,7 +690,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -705,17 +705,17 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -725,12 +725,12 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -755,7 +755,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -805,7 +805,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -880,7 +880,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -945,7 +945,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -955,7 +955,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1000,7 +1000,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -1020,7 +1020,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -1050,7 +1050,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -1100,7 +1100,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1115,7 +1115,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -1140,7 +1140,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1180,7 +1180,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -1235,12 +1235,12 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -1265,7 +1265,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -1280,7 +1280,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -1295,12 +1295,12 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -1330,7 +1330,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -1355,7 +1355,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -1375,7 +1375,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -1420,7 +1420,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -1440,7 +1440,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -1455,7 +1455,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -1470,12 +1470,12 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -1495,7 +1495,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -1610,7 +1610,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -1620,7 +1620,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -1675,7 +1675,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -1710,7 +1710,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -1830,12 +1830,12 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -1850,7 +1850,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -1860,7 +1860,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -1900,7 +1900,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -1925,7 +1925,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -1940,7 +1940,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -2035,7 +2035,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -2130,7 +2130,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -2195,7 +2195,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -2205,7 +2205,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -2235,7 +2235,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -2250,7 +2250,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -2285,7 +2285,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -2310,12 +2310,12 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -2370,7 +2370,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -2380,7 +2380,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -2390,17 +2390,17 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -2450,7 +2450,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -2490,7 +2490,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -2510,7 +2510,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -2525,7 +2525,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -2635,7 +2635,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -2665,7 +2665,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -2700,17 +2700,17 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -2750,12 +2750,12 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -2785,7 +2785,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -2810,7 +2810,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -2825,7 +2825,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -2885,7 +2885,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -2895,7 +2895,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -2925,7 +2925,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -2960,7 +2960,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -2975,7 +2975,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -2995,7 +2995,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -3025,7 +3025,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -3035,7 +3035,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -3055,12 +3055,12 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -3070,7 +3070,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -3125,12 +3125,12 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -3150,7 +3150,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -3220,7 +3220,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -3240,7 +3240,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -3270,7 +3270,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -3285,12 +3285,12 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -3330,7 +3330,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -3355,7 +3355,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -3380,7 +3380,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -3420,7 +3420,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -3460,12 +3460,12 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -3475,7 +3475,7 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -3760,7 +3760,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -3770,7 +3770,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -3780,12 +3780,12 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -3800,7 +3800,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -3835,7 +3835,7 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -3960,7 +3960,7 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -4005,7 +4005,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -4015,7 +4015,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -4115,7 +4115,7 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -4135,7 +4135,7 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -4215,7 +4215,7 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -4245,7 +4245,7 @@
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -4285,7 +4285,7 @@
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -4315,12 +4315,12 @@
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -4385,7 +4385,7 @@
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -4405,7 +4405,7 @@
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -4420,7 +4420,7 @@
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -4430,12 +4430,12 @@
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815">
@@ -4455,7 +4455,7 @@
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -4485,12 +4485,12 @@
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -4505,7 +4505,7 @@
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -4540,7 +4540,7 @@
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -4580,7 +4580,7 @@
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -4605,12 +4605,12 @@
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -4625,7 +4625,7 @@
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -4640,7 +4640,7 @@
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -4680,12 +4680,12 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -4700,12 +4700,12 @@
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869">
@@ -4715,7 +4715,7 @@
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -4765,7 +4765,7 @@
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881">
@@ -4775,7 +4775,7 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -4855,7 +4855,7 @@
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899">
@@ -4870,17 +4870,17 @@
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -4925,7 +4925,7 @@
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -4975,7 +4975,7 @@
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923">
@@ -4990,7 +4990,7 @@
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -5040,12 +5040,12 @@
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -5055,7 +5055,7 @@
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
@@ -5090,7 +5090,7 @@
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -5140,7 +5140,7 @@
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -5175,7 +5175,7 @@
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
@@ -5190,12 +5190,12 @@
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -5215,7 +5215,7 @@
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -5285,7 +5285,7 @@
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -5295,7 +5295,7 @@
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987">
@@ -5370,12 +5370,12 @@
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -5440,17 +5440,17 @@
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -5490,7 +5490,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026">
@@ -5550,7 +5550,7 @@
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038">
@@ -5580,7 +5580,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044">
@@ -5605,7 +5605,7 @@
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -5615,7 +5615,7 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051">
@@ -5650,7 +5650,7 @@
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058">
@@ -5680,7 +5680,7 @@
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064">
@@ -5705,7 +5705,7 @@
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069">
@@ -5715,7 +5715,7 @@
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071">
@@ -5725,7 +5725,7 @@
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -5735,12 +5735,12 @@
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076">
@@ -5760,7 +5760,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -5770,17 +5770,17 @@
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084">
@@ -5825,12 +5825,12 @@
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094">
@@ -5845,7 +5845,7 @@
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -5900,12 +5900,12 @@
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -5945,7 +5945,7 @@
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117">
@@ -6010,7 +6010,7 @@
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -6035,12 +6035,12 @@
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136">
@@ -6095,7 +6095,7 @@
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147">
@@ -6110,12 +6110,12 @@
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151">
@@ -6125,12 +6125,12 @@
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154">
@@ -6185,7 +6185,7 @@
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165">
@@ -6240,7 +6240,7 @@
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176">
@@ -6250,17 +6250,17 @@
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180">
@@ -6270,7 +6270,7 @@
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -6285,7 +6285,7 @@
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185">
@@ -6325,7 +6325,7 @@
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193">
@@ -6345,7 +6345,7 @@
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -6410,7 +6410,7 @@
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210">
@@ -6485,7 +6485,7 @@
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225">
@@ -6530,7 +6530,7 @@
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234">
@@ -6545,7 +6545,7 @@
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -6565,7 +6565,7 @@
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241">
@@ -6595,7 +6595,7 @@
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247">
@@ -6640,7 +6640,7 @@
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256">
@@ -6655,7 +6655,7 @@
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259">
@@ -6665,7 +6665,7 @@
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -6690,7 +6690,7 @@
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266">
@@ -6700,7 +6700,7 @@
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
@@ -6775,7 +6775,7 @@
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283">
@@ -6800,17 +6800,17 @@
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -6820,17 +6820,17 @@
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -6865,7 +6865,7 @@
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301">
@@ -6895,7 +6895,7 @@
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307">
@@ -6905,12 +6905,12 @@
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -6935,7 +6935,7 @@
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315">
@@ -7010,7 +7010,7 @@
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -7020,7 +7020,7 @@
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -7040,12 +7040,12 @@
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -7135,7 +7135,7 @@
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355">
@@ -7150,7 +7150,7 @@
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358">
@@ -7160,7 +7160,7 @@
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360">
@@ -7200,7 +7200,7 @@
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -7225,17 +7225,17 @@
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -7275,7 +7275,7 @@
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1383">
@@ -7300,12 +7300,12 @@
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389">
